--- a/public/template/ide.xlsx
+++ b/public/template/ide.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="14355" windowHeight="4935"/>
+    <workbookView xWindow="480" yWindow="50" windowWidth="14360" windowHeight="4940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>NO.</t>
   </si>
@@ -64,100 +64,94 @@
     </r>
   </si>
   <si>
-    <t>q1</t>
-  </si>
-  <si>
-    <t>q2</t>
-  </si>
-  <si>
-    <t>q4</t>
-  </si>
-  <si>
-    <t>q3</t>
-  </si>
-  <si>
-    <t>q5</t>
-  </si>
-  <si>
-    <t>q6</t>
-  </si>
-  <si>
-    <t>q7</t>
-  </si>
-  <si>
-    <t>q8</t>
-  </si>
-  <si>
-    <t>q9</t>
-  </si>
-  <si>
-    <t>q10</t>
-  </si>
-  <si>
-    <t>q11</t>
-  </si>
-  <si>
-    <t>q12</t>
-  </si>
-  <si>
-    <t>q13</t>
-  </si>
-  <si>
-    <t>q14</t>
-  </si>
-  <si>
-    <t>q15</t>
-  </si>
-  <si>
-    <t>a1</t>
-  </si>
-  <si>
-    <t>a2</t>
-  </si>
-  <si>
-    <t>a3</t>
-  </si>
-  <si>
-    <t>a4</t>
-  </si>
-  <si>
-    <t>a5</t>
-  </si>
-  <si>
-    <t>a6</t>
-  </si>
-  <si>
-    <t>a7</t>
-  </si>
-  <si>
-    <t>a8</t>
-  </si>
-  <si>
-    <t>a9</t>
-  </si>
-  <si>
-    <t>a10</t>
-  </si>
-  <si>
-    <t>a11</t>
-  </si>
-  <si>
-    <t>a12</t>
-  </si>
-  <si>
-    <t>a13</t>
-  </si>
-  <si>
-    <t>a14</t>
-  </si>
-  <si>
-    <t>a15</t>
-  </si>
-  <si>
-    <t>aa</t>
-  </si>
-  <si>
-    <t>aaa</t>
+    <t>Question 1</t>
+  </si>
+  <si>
+    <t>Question 2</t>
+  </si>
+  <si>
+    <t>Question 3</t>
+  </si>
+  <si>
+    <t>Question 4</t>
+  </si>
+  <si>
+    <t>Question 5</t>
+  </si>
+  <si>
+    <t>Question 6</t>
+  </si>
+  <si>
+    <t>Question 7</t>
+  </si>
+  <si>
+    <t>Question 8</t>
+  </si>
+  <si>
+    <t>Question 9</t>
+  </si>
+  <si>
+    <t>Question 10</t>
+  </si>
+  <si>
+    <t>Question 11</t>
+  </si>
+  <si>
+    <t>Question 12</t>
+  </si>
+  <si>
+    <t>Question 13</t>
+  </si>
+  <si>
+    <t>Question 14</t>
+  </si>
+  <si>
+    <t>Question 15</t>
+  </si>
+  <si>
+    <t>Answer 1</t>
+  </si>
+  <si>
+    <t>Answer 2</t>
+  </si>
+  <si>
+    <t>Answer 3</t>
+  </si>
+  <si>
+    <t>Answer 4</t>
+  </si>
+  <si>
+    <t>Answer 5</t>
+  </si>
+  <si>
+    <t>Answer 6</t>
+  </si>
+  <si>
+    <t>Answer 7</t>
+  </si>
+  <si>
+    <t>Answer 8</t>
+  </si>
+  <si>
+    <t>Answer 9</t>
+  </si>
+  <si>
+    <t>Answer 10</t>
+  </si>
+  <si>
+    <t>Answer 11</t>
+  </si>
+  <si>
+    <t>Answer 12</t>
+  </si>
+  <si>
+    <t>Answer 13</t>
+  </si>
+  <si>
+    <t>Answer 14</t>
+  </si>
+  <si>
+    <t>Answer 15</t>
   </si>
 </sst>
 </file>
@@ -262,7 +256,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -289,7 +283,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -593,23 +590,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:Z20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="39.28515625" customWidth="1"/>
-    <col min="3" max="3" width="26.85546875" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="39.26953125" customWidth="1"/>
+    <col min="3" max="3" width="26.81640625" customWidth="1"/>
+    <col min="4" max="4" width="26.81640625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="23.7265625" customWidth="1"/>
+    <col min="6" max="6" width="9.1796875" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -628,8 +625,22 @@
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
-    </row>
-    <row r="2" spans="1:12" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
+    </row>
+    <row r="2" spans="1:26" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -650,8 +661,22 @@
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
-    </row>
-    <row r="3" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
+    </row>
+    <row r="3" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -660,9 +685,6 @@
       </c>
       <c r="C3" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="F3" s="8" t="b">
         <v>1</v>
@@ -674,7 +696,7 @@
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
     </row>
-    <row r="4" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -694,18 +716,15 @@
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="F5" s="8" t="b">
         <v>1</v>
@@ -717,12 +736,12 @@
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
     </row>
-    <row r="6" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>26</v>
@@ -737,7 +756,7 @@
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
     </row>
-    <row r="7" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -746,9 +765,6 @@
       </c>
       <c r="C7" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="F7" s="8" t="b">
         <v>1</v>
@@ -760,7 +776,7 @@
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
     </row>
-    <row r="8" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -780,7 +796,7 @@
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
     </row>
-    <row r="9" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -789,9 +805,6 @@
       </c>
       <c r="C9" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="F9" s="8" t="b">
         <v>1</v>
@@ -803,7 +816,7 @@
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
     </row>
-    <row r="10" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>8</v>
       </c>
@@ -823,7 +836,7 @@
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
     </row>
-    <row r="11" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>9</v>
       </c>
@@ -832,9 +845,6 @@
       </c>
       <c r="C11" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="F11" s="8" t="b">
         <v>1</v>
@@ -846,7 +856,7 @@
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
     </row>
-    <row r="12" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>10</v>
       </c>
@@ -866,7 +876,7 @@
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
     </row>
-    <row r="13" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>11</v>
       </c>
@@ -875,9 +885,6 @@
       </c>
       <c r="C13" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="F13" s="8" t="b">
         <v>1</v>
@@ -889,7 +896,7 @@
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
     </row>
-    <row r="14" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>12</v>
       </c>
@@ -909,7 +916,7 @@
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
     </row>
-    <row r="15" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>13</v>
       </c>
@@ -918,9 +925,6 @@
       </c>
       <c r="C15" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="F15" s="8" t="b">
         <v>1</v>
@@ -932,7 +936,7 @@
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
     </row>
-    <row r="16" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>14</v>
       </c>
@@ -952,7 +956,7 @@
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
     </row>
-    <row r="17" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>15</v>
       </c>
@@ -961,9 +965,6 @@
       </c>
       <c r="C17" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="F17" s="8" t="b">
         <v>1</v>
@@ -975,34 +976,46 @@
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
     </row>
-    <row r="19" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+    </row>
+    <row r="19" spans="1:12" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-    </row>
-    <row r="20" spans="1:12" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+    </row>
+    <row r="20" spans="1:12" ht="54" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
     </row>
   </sheetData>
-  <sheetProtection password="D692" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="CA9C" sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0"/>
   <mergeCells count="2">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="A19:J20"/>
